--- a/InputData/trans/FoSfBPPTtC/Fraction of Subsidy for Battery Production Passed Through to Consumers.xlsx
+++ b/InputData/trans/FoSfBPPTtC/Fraction of Subsidy for Battery Production Passed Through to Consumers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\FoSfBPPTtC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\FoSfBPPTtC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E453D-9834-499C-8AB7-6F5D5B5F88BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B6996-70C7-475C-BE74-6F9B5267381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2100" windowWidth="21600" windowHeight="12735" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="59580" yWindow="1425" windowWidth="21600" windowHeight="15210" activeTab="1" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,21 +426,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,27 +448,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -483,16 +483,16 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -619,13 +619,13 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="N2">
         <v>0</v>
